--- a/data/Julián MercadoT3-2024.xlsx
+++ b/data/Julián MercadoT3-2024.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:I22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,8 @@
     <col width="25" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -473,6 +475,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -480,6 +483,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -533,8 +537,6 @@
       <c r="F10" s="11" t="n">
         <v>170.86325217</v>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="C11" t="inlineStr">
@@ -748,6 +750,7 @@
         <v>0.20548364</v>
       </c>
     </row>
+    <row r="21"/>
     <row r="22">
       <c r="D22" s="6" t="inlineStr">
         <is>
@@ -773,7 +776,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:E35"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -786,6 +789,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -793,6 +798,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -800,6 +806,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -1143,6 +1150,7 @@
         <v>9.47e-05</v>
       </c>
     </row>
+    <row r="34"/>
     <row r="35">
       <c r="C35" s="6" t="inlineStr">
         <is>
@@ -1168,7 +1176,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:E15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1181,6 +1189,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -1188,6 +1198,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -1195,6 +1206,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -1278,6 +1290,7 @@
         <v>6.09e-05</v>
       </c>
     </row>
+    <row r="14"/>
     <row r="15">
       <c r="C15" s="6" t="inlineStr">
         <is>

--- a/data/Julián MercadoT3-2024.xlsx
+++ b/data/Julián MercadoT3-2024.xlsx
@@ -67,7 +67,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -88,6 +88,8 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -452,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="C3:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,8 +468,6 @@
     <col width="25" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1"/>
-    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -475,7 +475,6 @@
         </is>
       </c>
     </row>
-    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -483,7 +482,6 @@
         </is>
       </c>
     </row>
-    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -537,6 +535,8 @@
       <c r="F10" s="11" t="n">
         <v>170.86325217</v>
       </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="C11" t="inlineStr">
@@ -750,7 +750,6 @@
         <v>0.20548364</v>
       </c>
     </row>
-    <row r="21"/>
     <row r="22">
       <c r="D22" s="6" t="inlineStr">
         <is>
@@ -776,7 +775,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E35"/>
+  <dimension ref="C3:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -789,8 +788,6 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1"/>
-    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -798,7 +795,6 @@
         </is>
       </c>
     </row>
-    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -806,7 +802,6 @@
         </is>
       </c>
     </row>
-    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -1150,7 +1145,6 @@
         <v>9.47e-05</v>
       </c>
     </row>
-    <row r="34"/>
     <row r="35">
       <c r="C35" s="6" t="inlineStr">
         <is>
@@ -1176,7 +1170,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="C3:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1189,8 +1183,6 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1"/>
-    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -1198,7 +1190,6 @@
         </is>
       </c>
     </row>
-    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -1206,7 +1197,6 @@
         </is>
       </c>
     </row>
-    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -1290,7 +1280,6 @@
         <v>6.09e-05</v>
       </c>
     </row>
-    <row r="14"/>
     <row r="15">
       <c r="C15" s="6" t="inlineStr">
         <is>
